--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -145,22 +145,19 @@
     <t xml:space="preserve">help_i_and_r</t>
   </si>
   <si>
-    <t xml:space="preserve">The online offer is a tool to explore the display of the works mention by two inventories according to the research in the project [######](https://wendig.io). To understand the constarints of the inventoriss please visit the [introduction to the sources](https://wendig.io).</t>
+    <t xml:space="preserve">The online offer is a tool to explore the display of the works mentioned by two inventories according to the research in the project [La collection de peinture de l’Académie royale de peinture et de sculpture au Louvre](https://dfk-paris.org/fr/research-project/la_collection_academie_royale-3367). To understand the constraints of the inventories please visit the [introduction]()  (forthcoming).</t>
   </si>
   <si>
     <t xml:space="preserve">help_dims</t>
   </si>
   <si>
-    <t xml:space="preserve">The basolute dimensions of the art work is refering to entries in the holding collections. The three categories are meant to give a first idea of the space, the work has taken in the exposition.
-S:  &gt; 80 cm hight (portrait) or  width (paysage)
-M:  80 - 140 cm  hight (portrait) or  width (paysage)
-L:  &lt; 140 cm        hight (portrait) or  width (paysage)</t>
+    <t xml:space="preserve">This database concerns the display of art works, so their dimensions are important. To give a first impression, we show the ratio of the dimensions (height and width) to a human figure 1.70 m high. The measurements of the artwork refer to the entry in the holding collection.</t>
   </si>
   <si>
     <t xml:space="preserve">help_search</t>
   </si>
   <si>
-    <t xml:space="preserve">The name can be entered in the search slot. To search for two related terms (usually first and last name), enter a "+" between the first and the second term (example: "Alvar +Aalto" finds only "Alvar Aalto", but "Alvar + Aalto" finds all names containing at least one of the two components). With an asterisk a wildcard can be inserted ("Alva*" finds all names starting with "Alva").</t>
+    <t xml:space="preserve">The name can be entered in the search slot. To search for two related terms (usually first and last name), enter a "+" between the first and the second term (example: "Auger+Lucas" finds only "Auger Lucas", but "Auger + LUcas" finds all names containing at least one of the two components). With an asterisk a wildcard can be inserted ("Au*" finds all names starting with "Au").</t>
   </si>
   <si>
     <t xml:space="preserve">help_book</t>
@@ -182,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,6 +200,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,12 +249,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,23 +275,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="30.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,19 +521,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -170,6 +170,60 @@
   </si>
   <si>
     <t xml:space="preserve">The watchlist allows to collect and print the results of the research within one session. Further selection of the results is possible by the checkmarks at ech single entry. With closing the browser the watchlist will be set back. Further selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artist_at_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artist at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artist_at_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getty ULAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artists_at_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artists at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artists_at_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_of_art_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work of art at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_of_art_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work of art has been lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter_room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter_exact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location within room</t>
   </si>
 </sst>
 </file>
@@ -179,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,11 +254,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +307,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,16 +324,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -561,16 +610,86 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -169,7 +169,13 @@
     <t xml:space="preserve">help_print</t>
   </si>
   <si>
-    <t xml:space="preserve">The watchlist allows to collect and print the results of the research within one session. Further selection of the results is possible by the checkmarks at ech single entry. With closing the browser the watchlist will be set back. Further selection.</t>
+    <t xml:space="preserve">The watchlist allows to collect and print the results of the research within one session. Further selection of the results is possible by the checkmarks at each single entry. With closing the browser the watchlist will be set back. Further selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Guérin, Description sommaire des ouvrages de peinture, sculpture et gravure exposés dans les salles de l’Académie Royale (Paris: J. Collombat, 1715) &lt;br&gt;Antoine-Nicolas Dezallier d’Argenville, Description sommaire des ouvrages de peinture, sculpture et gravure exposés dans les salles de l’Académie Royale (Paris: De Bure, 1781)&lt;br&gt;Procès-verbaux de l'Académie Royale de peinture et de sculpture (Paris: J. Baur, 1673-1688)</t>
   </si>
   <si>
     <t xml:space="preserve">artist_at_0</t>
@@ -324,19 +330,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
@@ -602,7 +608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -610,7 +616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -647,15 +653,15 @@
         <v>58</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,12 +677,12 @@
         <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>65</v>
@@ -690,7 +696,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -788,6 +801,7 @@
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -121,13 +121,13 @@
     <t xml:space="preserve">ref_dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">citation reference for dataset</t>
+    <t xml:space="preserve">cite the dataset</t>
   </si>
   <si>
     <t xml:space="preserve">ref_entry</t>
   </si>
   <si>
-    <t xml:space="preserve">citation reference for this data entry</t>
+    <t xml:space="preserve">cite this entry</t>
   </si>
   <si>
     <t xml:space="preserve">contact</t>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -339,7 +339,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -339,7 +339,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,7 +616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="71.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t xml:space="preserve">location within room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy of this print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate at</t>
   </si>
 </sst>
 </file>
@@ -337,9 +352,9 @@
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -704,9 +719,30 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">plate at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,7 +746,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t xml:space="preserve">Royal Academy of Painting and Sculpture, reception pieces, Louvre, eighteenth-century French art, seventeenth-century French art, eighteenth century art France, seventeenth century art France, eighteenth century painting, seventeenth century painting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">télécharger l'ensemble de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download the complete dataset</t>
   </si>
 </sst>
 </file>
@@ -430,15 +439,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -632,12 +641,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1225,6 +1234,17 @@
         <v>108</v>
       </c>
     </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -356,6 +356,42 @@
   </si>
   <si>
     <t xml:space="preserve">download the complete dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print_entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print this entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">données JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_to_watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter à la watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add to watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove_from_watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supprimer de la watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove from watchlist</t>
   </si>
 </sst>
 </file>
@@ -641,12 +677,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1245,6 +1281,50 @@
         <v>111</v>
       </c>
     </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -392,6 +392,15 @@
   </si>
   <si>
     <t xml:space="preserve">remove from watchlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source: Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet,* 12 RES 870*, crédit photo : INHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image source: Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870, photo credit:INHA</t>
   </si>
 </sst>
 </file>
@@ -677,12 +686,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,6 +1334,17 @@
         <v>123</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -397,10 +397,10 @@
     <t xml:space="preserve">map_source</t>
   </si>
   <si>
-    <t xml:space="preserve">source: Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet,* 12 RES 870*, crédit photo : INHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image source: Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870, photo credit:INHA</t>
+    <t xml:space="preserve">Source d'image : Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870, crédit photo — INHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image source: Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870, photo credit — INHA</t>
   </si>
 </sst>
 </file>
@@ -479,12 +479,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -689,9 +693,9 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,648 +704,648 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="111.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="97.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="153.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="111.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="111.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+    <row r="48" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>126</v>
       </c>
     </row>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -394,13 +394,205 @@
     <t xml:space="preserve">remove from watchlist</t>
   </si>
   <si>
-    <t xml:space="preserve">map_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source d'image : Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870, crédit photo — INHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image source: Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870, photo credit — INHA</t>
+    <t xml:space="preserve">map_cite_this_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citer cette page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite this page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_cite_this_page_text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{room_id}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{room_id}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">map_cite_the_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citer l'ensemble de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite the dataset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">map_cite_the_dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database,” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/fr/page/academie-database-3846.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database,” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/en/page/academie-database-3846.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous contacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">map_contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This page* is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at collection-academieroyale@dfk-paris.org.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utilisation des données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">map_use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">La présente page est le résultat du travail du DFK Paris et peut être utilisée librement. Les plans originaux tirés de l'inventaire de Nicolas Guérin nous ont été aimablement fournis par l'INHA et sont soumis au droit d'auteur (source de l'image : Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870 ; crédit photo : INHA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The present page is the result of the intellectual work of the DFK Paris and can be used freely. The original plans from Nicolas Guérin's inventory were kindly provided to us by the INHA and are subject to copyright (image source: Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870; photo credit: INHA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_name_salon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_name_salle-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troisième salle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_name_salle-assemblee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salle d'Assemblée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_name_salle-separee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salle separée des autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_name_vestibule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestibule</t>
   </si>
 </sst>
 </file>
@@ -410,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -431,6 +623,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,7 +683,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,6 +701,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,12 +898,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1338,7 +1546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
@@ -1349,7 +1557,143 @@
         <v>126</v>
       </c>
     </row>
+    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C55" r:id="rId1" location="/maps/%25" display="https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%"/>
+    <hyperlink ref="D55" r:id="rId2" location="/maps/%25" display="https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -406,64 +406,10 @@
     <t xml:space="preserve">map_cite_this_page_text</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{room_id}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{room_id}</t>
-    </r>
+    <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%{room_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%{room_id}</t>
   </si>
   <si>
     <t xml:space="preserve">map_cite_the_dataset</t>
@@ -475,23 +421,7 @@
     <t xml:space="preserve">Cite the dataset</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">map_cite_the_dataset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_text</t>
-    </r>
+    <t xml:space="preserve">map_cite_the_dataset_text</t>
   </si>
   <si>
     <t xml:space="preserve">Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database,” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/fr/page/academie-database-3846.html</t>
@@ -509,23 +439,7 @@
     <t xml:space="preserve">Contact</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">map_contact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_text</t>
-    </r>
+    <t xml:space="preserve">map_contact_text</t>
   </si>
   <si>
     <t xml:space="preserve">This page* is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at collection-academieroyale@dfk-paris.org.</t>
@@ -540,23 +454,7 @@
     <t xml:space="preserve">Use</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">map_use</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_text</t>
-    </r>
+    <t xml:space="preserve">map_use_text</t>
   </si>
   <si>
     <t xml:space="preserve">La présente page est le résultat du travail du DFK Paris et peut être utilisée librement. Les plans originaux tirés de l'inventaire de Nicolas Guérin nous ont été aimablement fournis par l'INHA et sont soumis au droit d'auteur (source de l'image : Bibliothèque de l'Institut national d'histoire de l'art, collections Jacques Doucet, 12 RES 870 ; crédit photo : INHA).</t>
@@ -593,6 +491,24 @@
   </si>
   <si>
     <t xml:space="preserve">Vestibule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidentified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non identifié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autre emplacement</t>
   </si>
 </sst>
 </file>
@@ -602,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -630,11 +546,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -683,7 +594,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -704,7 +615,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -898,12 +813,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1557,14 +1472,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1575,7 +1490,7 @@
       <c r="C56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1586,7 +1501,7 @@
       <c r="C57" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1597,7 +1512,7 @@
       <c r="C58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1608,7 +1523,7 @@
       <c r="C59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1619,7 +1534,7 @@
       <c r="C60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1630,7 +1545,7 @@
       <c r="C61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1689,10 +1604,43 @@
         <v>156</v>
       </c>
     </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C55" r:id="rId1" location="/maps/%25" display="https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%"/>
-    <hyperlink ref="D55" r:id="rId2" location="/maps/%25" display="https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%"/>
+    <hyperlink ref="C55" r:id="rId1" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%{room_id}"/>
+    <hyperlink ref="D55" r:id="rId2" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%{room_id}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="164">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -169,10 +169,37 @@
     <t xml:space="preserve">contact_text</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette page est le résultat d'une recherche en cours. Nous serions heureux de l'améliorer ou de la corriger. Si vous avez connaissance d'informations supplémentaires ou d'incohérences, veuillez nous contacter à l'adresse collection-academieroyale@dfk-paris.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This entry is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at collection-academieroyale@dfk-paris.org.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cette page est le résultat d'une recherche en cours. Nous serions heureux de l'améliorer ou de la corriger. Si vous avez connaissance d'informations supplémentaires ou d'incohérences, veuillez nous contacter à l'adresse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ca-royale@dfk-paris.org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This entry is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at ca-royale@dfk-paris.org.</t>
   </si>
   <si>
     <t xml:space="preserve">use</t>
@@ -328,6 +355,15 @@
     <t xml:space="preserve">copy of this print</t>
   </si>
   <si>
+    <t xml:space="preserve">orig_sculpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sculpture originale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original sculpture</t>
+  </si>
+  <si>
     <t xml:space="preserve">plate_at</t>
   </si>
   <si>
@@ -442,7 +478,10 @@
     <t xml:space="preserve">map_contact_text</t>
   </si>
   <si>
-    <t xml:space="preserve">This page* is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at collection-academieroyale@dfk-paris.org.</t>
+    <t xml:space="preserve">Cette page est le résultat d'une recherche en cours. Nous serions heureux de l'améliorer ou de la corriger. Si vous avez connaissance d'informations supplémentaires ou d'incohérences, veuillez nous contacter à l'adresse ca-royale@dfk-paris.org.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This page* is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at ca-royale@dfk-paris.org.</t>
   </si>
   <si>
     <t xml:space="preserve">map_use</t>
@@ -493,22 +532,13 @@
     <t xml:space="preserve">Vestibule</t>
   </si>
   <si>
-    <t xml:space="preserve">lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perdu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unidentified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non identifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autre emplacement</t>
+    <t xml:space="preserve">acquisition_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date d'entrée dans la collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date entered the collection</t>
   </si>
 </sst>
 </file>
@@ -599,27 +629,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -813,12 +843,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1389,31 +1419,32 @@
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="4" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1476,10 +1507,10 @@
       <c r="A55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1487,14 +1518,14 @@
       <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>133</v>
       </c>
@@ -1505,7 +1536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>136</v>
       </c>
@@ -1516,131 +1547,121 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>148</v>
+      <c r="C62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C55" r:id="rId1" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%{room_id}"/>
-    <hyperlink ref="D55" r:id="rId2" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%{room_id}"/>
+    <hyperlink ref="C26" r:id="rId1" display="ca-royale@dfk-paris.org"/>
+    <hyperlink ref="C56" r:id="rId2" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%{room_id}"/>
+    <hyperlink ref="D56" r:id="rId3" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%{room_id}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="166">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">numéro d'inventaire</t>
   </si>
   <si>
-    <t xml:space="preserve">inventory-number</t>
+    <t xml:space="preserve">inventory number</t>
   </si>
   <si>
     <t xml:space="preserve">current_location</t>
@@ -169,34 +169,7 @@
     <t xml:space="preserve">contact_text</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Cette page est le résultat d'une recherche en cours. Nous serions heureux de l'améliorer ou de la corriger. Si vous avez connaissance d'informations supplémentaires ou d'incohérences, veuillez nous contacter à l'adresse </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ca-royale@dfk-paris.org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
+    <t xml:space="preserve">Cette page est le résultat d'une recherche en cours. Nous serions heureux de l'améliorer ou de la corriger. Si vous avez connaissance d'informations supplémentaires ou d'incohérences, veuillez nous contacter à l'adresse ca-royale@dfk-paris.org.</t>
   </si>
   <si>
     <t xml:space="preserve">This entry is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at ca-royale@dfk-paris.org.</t>
@@ -478,9 +451,6 @@
     <t xml:space="preserve">map_contact_text</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette page est le résultat d'une recherche en cours. Nous serions heureux de l'améliorer ou de la corriger. Si vous avez connaissance d'informations supplémentaires ou d'incohérences, veuillez nous contacter à l'adresse ca-royale@dfk-paris.org.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This page* is the result of ongoing research. We would be happy to improve or correct it. If you are aware of additional information or inconsistencies, please contact us at ca-royale@dfk-paris.org.</t>
   </si>
   <si>
@@ -539,6 +509,15 @@
   </si>
   <si>
     <t xml:space="preserve">date entered the collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulltext_search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recherche plein texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full-text search</t>
   </si>
 </sst>
 </file>
@@ -624,32 +603,36 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,12 +826,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1161,12 +1144,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1441,10 +1424,10 @@
       <c r="A49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1518,10 +1501,10 @@
       <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1532,7 +1515,7 @@
       <c r="C57" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1543,7 +1526,7 @@
       <c r="C58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1554,7 +1537,7 @@
       <c r="C59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1563,103 +1546,114 @@
         <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D68" s="1" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>163</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" display="ca-royale@dfk-paris.org"/>
+    <hyperlink ref="C26" r:id="rId1" display="Cette page est le résultat d'une recherche en cours. Nous serions heureux de l'améliorer ou de la corriger. Si vous avez connaissance d'informations supplémentaires ou d'incohérences, veuillez nous contacter à l'adresse ca-royale@dfk-paris.org."/>
     <hyperlink ref="C56" r:id="rId2" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/fr/page/academie-database-3846.html#/maps/%{room_id}"/>
     <hyperlink ref="D56" r:id="rId3" location="/maps/%25" display="Castor, Markus A., Anne Klammt, and Sofya Dmitrieva (eds.), “Académie Royale Art Collection Database. %{room_label},” DFK Paris. August 31, 2023. URL: https://www.dfk-paris.org/en/page/academie-database-3846.html#/maps/%{room_id}"/>
   </hyperlinks>

--- a/data/translations.04_ra.xlsx
+++ b/data/translations.04_ra.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t xml:space="preserve">full-text search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d'après</t>
   </si>
 </sst>
 </file>
@@ -603,12 +609,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,16 +634,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -826,751 +828,752 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="2" width="30.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1649,6 +1652,17 @@
       </c>
       <c r="D69" s="1" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
